--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H2">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I2">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J2">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N2">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q2">
-        <v>2814.67587244694</v>
+        <v>6.157665050417778</v>
       </c>
       <c r="R2">
-        <v>25332.08285202246</v>
+        <v>55.41898545376</v>
       </c>
       <c r="S2">
-        <v>0.3275089501666473</v>
+        <v>0.005005915597214768</v>
       </c>
       <c r="T2">
-        <v>0.3275089501666473</v>
+        <v>0.005005915597214768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H3">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I3">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J3">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P3">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q3">
-        <v>55.20820515881866</v>
+        <v>11.76669329539556</v>
       </c>
       <c r="R3">
-        <v>496.873846429368</v>
+        <v>105.90023965856</v>
       </c>
       <c r="S3">
-        <v>0.006423894661956477</v>
+        <v>0.009565813179634812</v>
       </c>
       <c r="T3">
-        <v>0.006423894661956476</v>
+        <v>0.009565813179634813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H4">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I4">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J4">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N4">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O4">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P4">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q4">
-        <v>20.72120646332467</v>
+        <v>8.915636216364442</v>
       </c>
       <c r="R4">
-        <v>186.490858169922</v>
+        <v>80.24072594727998</v>
       </c>
       <c r="S4">
-        <v>0.002411070006824646</v>
+        <v>0.007248026975998565</v>
       </c>
       <c r="T4">
-        <v>0.002411070006824646</v>
+        <v>0.007248026975998566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H5">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I5">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J5">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N5">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q5">
-        <v>2710.406024175518</v>
+        <v>340.4353633976089</v>
       </c>
       <c r="R5">
-        <v>24393.65421757966</v>
+        <v>3063.91827057848</v>
       </c>
       <c r="S5">
-        <v>0.3153763600962599</v>
+        <v>0.2767592393418579</v>
       </c>
       <c r="T5">
-        <v>0.3153763600962599</v>
+        <v>0.276759239341858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H6">
         <v>101.380791</v>
       </c>
       <c r="I6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N6">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q6">
-        <v>656.6969236291804</v>
+        <v>6.740651090137334</v>
       </c>
       <c r="R6">
-        <v>5910.272312662624</v>
+        <v>60.665859811236</v>
       </c>
       <c r="S6">
-        <v>0.07641168283028095</v>
+        <v>0.005479858055158724</v>
       </c>
       <c r="T6">
-        <v>0.07641168283028095</v>
+        <v>0.005479858055158723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H7">
         <v>101.380791</v>
       </c>
       <c r="I7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>1.143476</v>
       </c>
       <c r="O7">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P7">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q7">
-        <v>12.88072237439067</v>
+        <v>12.88072237439066</v>
       </c>
       <c r="R7">
         <v>115.926501369516</v>
       </c>
       <c r="S7">
-        <v>0.001498770037260927</v>
+        <v>0.01047147068075434</v>
       </c>
       <c r="T7">
-        <v>0.001498770037260927</v>
+        <v>0.01047147068075434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H8">
         <v>101.380791</v>
       </c>
       <c r="I8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N8">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O8">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P8">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q8">
-        <v>4.834500722287667</v>
+        <v>9.759737252520331</v>
       </c>
       <c r="R8">
-        <v>43.51050650058901</v>
+        <v>87.83763527268299</v>
       </c>
       <c r="S8">
-        <v>0.0005625309370914716</v>
+        <v>0.0079342446425849</v>
       </c>
       <c r="T8">
-        <v>0.0005625309370914716</v>
+        <v>0.0079342446425849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H9">
         <v>101.380791</v>
       </c>
       <c r="I9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N9">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q9">
-        <v>632.3695439626912</v>
+        <v>372.6665845930836</v>
       </c>
       <c r="R9">
-        <v>5691.32589566422</v>
+        <v>3353.999261337753</v>
       </c>
       <c r="S9">
-        <v>0.073581007137612</v>
+        <v>0.3029618293786057</v>
       </c>
       <c r="T9">
-        <v>0.07358100713761198</v>
+        <v>0.3029618293786057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H10">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I10">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J10">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N10">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q10">
-        <v>44.17122286382711</v>
+        <v>0.5946431927302223</v>
       </c>
       <c r="R10">
-        <v>397.541005774444</v>
+        <v>5.351788734572001</v>
       </c>
       <c r="S10">
-        <v>0.005139657809029568</v>
+        <v>0.0004834192196056272</v>
       </c>
       <c r="T10">
-        <v>0.005139657809029569</v>
+        <v>0.0004834192196056271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H11">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I11">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J11">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.143476</v>
       </c>
       <c r="O11">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P11">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q11">
-        <v>0.8663924531608889</v>
+        <v>1.136304753792444</v>
       </c>
       <c r="R11">
-        <v>7.797532078448</v>
+        <v>10.226742784132</v>
       </c>
       <c r="S11">
-        <v>0.0001008113529322115</v>
+        <v>0.0009237666621397269</v>
       </c>
       <c r="T11">
-        <v>0.0001008113529322115</v>
+        <v>0.0009237666621397269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H12">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I12">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J12">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N12">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O12">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P12">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q12">
-        <v>0.3251816799435556</v>
+        <v>0.8609793390045554</v>
       </c>
       <c r="R12">
-        <v>2.926635119492</v>
+        <v>7.748814051040999</v>
       </c>
       <c r="S12">
-        <v>3.783736225342169E-05</v>
+        <v>0.0006999389974467914</v>
       </c>
       <c r="T12">
-        <v>3.783736225342169E-05</v>
+        <v>0.0006999389974467913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H13">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I13">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J13">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N13">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q13">
-        <v>42.53489707901467</v>
+        <v>32.87570365577011</v>
       </c>
       <c r="R13">
-        <v>382.814073711132</v>
+        <v>295.881332901931</v>
       </c>
       <c r="S13">
-        <v>0.004949258855757324</v>
+        <v>0.02672652642719896</v>
       </c>
       <c r="T13">
-        <v>0.004949258855757324</v>
+        <v>0.02672652642719896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H14">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I14">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J14">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N14">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q14">
-        <v>803.2964110926563</v>
+        <v>7.130276566027112</v>
       </c>
       <c r="R14">
-        <v>7229.667699833907</v>
+        <v>64.17248909424401</v>
       </c>
       <c r="S14">
-        <v>0.09346964843979595</v>
+        <v>0.005796606730323596</v>
       </c>
       <c r="T14">
-        <v>0.09346964843979597</v>
+        <v>0.005796606730323594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H15">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I15">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J15">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.143476</v>
       </c>
       <c r="O15">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P15">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q15">
-        <v>15.75618475330578</v>
+        <v>13.62525840181822</v>
       </c>
       <c r="R15">
-        <v>141.805662779752</v>
+        <v>122.627325616364</v>
       </c>
       <c r="S15">
-        <v>0.001833351959883327</v>
+        <v>0.01107674629770838</v>
       </c>
       <c r="T15">
-        <v>0.001833351959883327</v>
+        <v>0.01107674629770838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H16">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I16">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J16">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N16">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O16">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P16">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q16">
-        <v>5.913743372173111</v>
+        <v>10.32387300450078</v>
       </c>
       <c r="R16">
-        <v>53.22369034955801</v>
+        <v>92.91485704050699</v>
       </c>
       <c r="S16">
-        <v>0.000688109029652364</v>
+        <v>0.008392862631167081</v>
       </c>
       <c r="T16">
-        <v>0.000688109029652364</v>
+        <v>0.00839286263116708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H17">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I17">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J17">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N17">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q17">
-        <v>773.5382440079354</v>
+        <v>394.2075890789485</v>
       </c>
       <c r="R17">
-        <v>6961.844196071418</v>
+        <v>3547.868301710537</v>
       </c>
       <c r="S17">
-        <v>0.09000705931676209</v>
+        <v>0.3204737351826</v>
       </c>
       <c r="T17">
-        <v>0.0900070593167621</v>
+        <v>0.3204737351826</v>
       </c>
     </row>
   </sheetData>
